--- a/Below Lenght and Dia Formula.xlsx
+++ b/Below Lenght and Dia Formula.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
